--- a/docs/list for Jonathan (1).xlsx
+++ b/docs/list for Jonathan (1).xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prwright\Pictures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joconnell\source\repos\JHA-dashboard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2D9C956-B61A-4C05-AAB8-40067C9A6F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD010A4-138B-4F75-8CA3-BF9DF2ADA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19830" yWindow="300" windowWidth="27375" windowHeight="14985" xr2:uid="{21742CF5-EB6F-41CF-AFF6-5F7BD7D2A3B9}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{21742CF5-EB6F-41CF-AFF6-5F7BD7D2A3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$F$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -669,12 +675,63 @@
   <si>
     <t>-1.24</t>
   </si>
+  <si>
+    <t>43⁰ 36' 14.55"</t>
+  </si>
+  <si>
+    <t>43⁰ 35' 50.69"</t>
+  </si>
+  <si>
+    <t>43⁰ 35' 59.8"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 2.92"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 2.65"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 04.97"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 12.48"</t>
+  </si>
+  <si>
+    <t>43⁰ 35' 55.94"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 29.45"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 3.36"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 5.64"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 4.93"</t>
+  </si>
+  <si>
+    <t>43⁰ 36' 2.01"</t>
+  </si>
+  <si>
+    <t>43⁰ 35' 57.57"</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>styetas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -797,7 +854,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -871,6 +928,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -886,9 +944,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,11 +1263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F0DA19-21B4-49FC-8631-6716B519985C}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="A2:P45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
@@ -1221,27 +1279,27 @@
     <col min="10" max="10" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="57" customHeight="1" thickBot="1">
+    <row r="1" spans="1:16" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" ht="90.75" thickBot="1">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+    </row>
+    <row r="2" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1282,50 +1340,50 @@
       <c r="N2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="31"/>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="32" t="s">
+      <c r="P2" s="32"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>433641110441501</v>
       </c>
@@ -1369,7 +1427,7 @@
       </c>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="12"/>
@@ -1387,7 +1445,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>433615110440001</v>
       </c>
@@ -1433,7 +1491,7 @@
       </c>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="11"/>
       <c r="C8" s="14"/>
@@ -1451,7 +1509,7 @@
       <c r="O8" s="11"/>
       <c r="P8" s="7"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>433604110443401</v>
       </c>
@@ -1497,7 +1555,7 @@
       </c>
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="11"/>
       <c r="C10" s="14"/>
@@ -1515,7 +1573,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>433604110443403</v>
       </c>
@@ -1561,7 +1619,7 @@
       </c>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="11"/>
       <c r="C12" s="14"/>
@@ -1579,7 +1637,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>433604110443402</v>
       </c>
@@ -1625,7 +1683,7 @@
       </c>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="11"/>
       <c r="C14" s="14"/>
@@ -1643,7 +1701,7 @@
       <c r="O14" s="11"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>433551110443501</v>
       </c>
@@ -1689,7 +1747,7 @@
       </c>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="11"/>
       <c r="C16" s="14"/>
@@ -1707,7 +1765,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>433600110443701</v>
       </c>
@@ -1753,7 +1811,7 @@
       </c>
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="11"/>
       <c r="C18" s="14"/>
@@ -1771,7 +1829,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>433603110443501</v>
       </c>
@@ -1817,7 +1875,7 @@
       </c>
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="11"/>
       <c r="C20" s="14"/>
@@ -1835,7 +1893,7 @@
       <c r="O20" s="11"/>
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>433603110443502</v>
       </c>
@@ -1881,7 +1939,7 @@
       </c>
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="11"/>
       <c r="C22" s="14"/>
@@ -1899,7 +1957,7 @@
       <c r="O22" s="11"/>
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>433605110443801</v>
       </c>
@@ -1945,7 +2003,7 @@
       </c>
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
       <c r="B24" s="11"/>
       <c r="C24" s="14"/>
@@ -1963,7 +2021,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>433613110443501</v>
       </c>
@@ -2009,7 +2067,7 @@
       </c>
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2027,8 +2085,8 @@
       <c r="O26" s="11"/>
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="35" t="s">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="37"/>
@@ -2047,7 +2105,7 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38"/>
@@ -2065,7 +2123,7 @@
       <c r="O28" s="38"/>
       <c r="P28" s="38"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>433556110441601</v>
       </c>
@@ -2111,7 +2169,7 @@
       </c>
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D30" s="19"/>
       <c r="I30" s="20"/>
       <c r="J30" s="20"/>
@@ -2121,7 +2179,7 @@
       <c r="N30" s="21"/>
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>433630110442701</v>
       </c>
@@ -2167,7 +2225,7 @@
       </c>
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -2185,7 +2243,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>433604110441001</v>
       </c>
@@ -2231,7 +2289,7 @@
       </c>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2249,7 +2307,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>433606110440501</v>
       </c>
@@ -2295,7 +2353,7 @@
       </c>
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -2313,7 +2371,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>433605110441201</v>
       </c>
@@ -2359,7 +2417,7 @@
       </c>
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -2377,7 +2435,7 @@
       <c r="O38" s="11"/>
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>433602110441201</v>
       </c>
@@ -2423,7 +2481,7 @@
       </c>
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2441,7 +2499,7 @@
       <c r="O40" s="11"/>
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>433558110441501</v>
       </c>
@@ -2487,7 +2545,7 @@
       </c>
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2505,7 +2563,7 @@
       <c r="O42" s="11"/>
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>433607110440901</v>
       </c>
@@ -2560,4 +2618,1101 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA7D3E0-7F9C-48E4-8FA8-7F3AF493ED1F}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>433615110440001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>521469.65</v>
+      </c>
+      <c r="D4">
+        <v>4827930.53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4">
+        <v>6422.46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>6421.91</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>433604110443401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>520771.42</v>
+      </c>
+      <c r="D5">
+        <v>4827609.03</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>6414.26</v>
+      </c>
+      <c r="I5">
+        <v>55</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>-1.26</v>
+      </c>
+      <c r="N5">
+        <v>6415.52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>433604110443403</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>520769.62</v>
+      </c>
+      <c r="D6">
+        <v>4827610.5599999996</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>6415.4</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6">
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
+      <c r="M6">
+        <v>-0.48</v>
+      </c>
+      <c r="N6">
+        <v>6415.88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>433604110443402</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>520771.42</v>
+      </c>
+      <c r="D7">
+        <v>4827609.03</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>6415.65</v>
+      </c>
+      <c r="I7">
+        <v>94.45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>85</v>
+      </c>
+      <c r="L7">
+        <v>95</v>
+      </c>
+      <c r="M7">
+        <v>-0.4</v>
+      </c>
+      <c r="N7">
+        <v>6416.05</v>
+      </c>
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>433551110443501</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>520682.13</v>
+      </c>
+      <c r="D8">
+        <v>4827191.9000000004</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>6406.59</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8">
+        <v>6406.27</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>433600110443701</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>520682.16</v>
+      </c>
+      <c r="D9">
+        <v>4827472.96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>6410.76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>6410.51</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>433603110443501</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>520686.12</v>
+      </c>
+      <c r="D10">
+        <v>4827569.2699999996</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10">
+        <v>6412.22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10">
+        <v>6411.94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>433603110443502</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>520683.01</v>
+      </c>
+      <c r="D11">
+        <v>4827560.93</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11">
+        <v>6411.99</v>
+      </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>6413.96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>433605110443801</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>520680.1</v>
+      </c>
+      <c r="D12">
+        <v>4827632.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>6413.03</v>
+      </c>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12">
+        <v>6412.72</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>433613110443501</v>
+      </c>
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>520676.47</v>
+      </c>
+      <c r="D13">
+        <v>4827864.17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13">
+        <v>6418.06</v>
+      </c>
+      <c r="I13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13">
+        <v>6417.74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>433556110441601</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>4827355.24</v>
+      </c>
+      <c r="F14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14">
+        <v>6409.86</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14">
+        <v>6409.61</v>
+      </c>
+      <c r="O14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>433630110442701</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>4828388.2300000004</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15">
+        <v>6427.55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15">
+        <v>-1.07</v>
+      </c>
+      <c r="N15">
+        <v>6428.62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>433604110441001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>4827584.5599999996</v>
+      </c>
+      <c r="F16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16">
+        <v>6416.63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>0.12</v>
+      </c>
+      <c r="N16">
+        <v>6416.51</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>433606110440501</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17">
+        <v>4827655.25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17">
+        <v>6417.17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>-1.17</v>
+      </c>
+      <c r="N17">
+        <v>6418.34</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>433605110441201</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18">
+        <v>4827632.88</v>
+      </c>
+      <c r="F18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18">
+        <v>6416.83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18">
+        <v>-1.26</v>
+      </c>
+      <c r="N18">
+        <v>6418.09</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>433602110441201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19">
+        <v>4827542.8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19">
+        <v>6414.09</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" t="s">
+        <v>19</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>-1.02</v>
+      </c>
+      <c r="N19">
+        <v>6415.11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>433558110441501</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20">
+        <v>4827405.62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20">
+        <v>6412.57</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>0.26</v>
+      </c>
+      <c r="N20">
+        <v>6412.31</v>
+      </c>
+      <c r="O20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>433607110440901</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>4827678.41</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21">
+        <v>6418.51</v>
+      </c>
+      <c r="I21">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" t="s">
+        <v>102</v>
+      </c>
+      <c r="N21">
+        <v>6419.75</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D2" xr:uid="{4FA7D3E0-7F9C-48E4-8FA8-7F3AF493ED1F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
+      <sortCondition ref="A1:A2"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3DFD61-4DB4-4EE4-B53A-1B28A73E6A29}">
+  <dimension ref="F1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="39">
+        <v>433551110443501</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2">
+        <v>520682.13</v>
+      </c>
+    </row>
+    <row r="3" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="39">
+        <v>433556110441601</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="39">
+        <v>433558110441501</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="39">
+        <v>433600110443701</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>520682.16</v>
+      </c>
+    </row>
+    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="39">
+        <v>433602110441201</v>
+      </c>
+      <c r="G6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="39">
+        <v>433603110443501</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7">
+        <v>520686.12</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="39">
+        <v>433603110443502</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>520683.01</v>
+      </c>
+    </row>
+    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="39">
+        <v>433604110441001</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="39">
+        <v>433604110443401</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>520771.42</v>
+      </c>
+    </row>
+    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="39">
+        <v>433604110443402</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>520771.42</v>
+      </c>
+    </row>
+    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="39">
+        <v>433604110443403</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
+        <v>520769.62</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="39">
+        <v>433605110441201</v>
+      </c>
+      <c r="G13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="39">
+        <v>433605110443801</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>520680.1</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="39">
+        <v>433606110440501</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="39">
+        <v>433607110440901</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="39">
+        <v>433613110443501</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17">
+        <v>520676.47</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F18" s="39">
+        <v>433615110440001</v>
+      </c>
+      <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>521469.65</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="39">
+        <v>433630110442701</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:H1" xr:uid="{0A3DFD61-4DB4-4EE4-B53A-1B28A73E6A29}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H21">
+      <sortCondition ref="F1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>